--- a/src/test/resources/sampleUpload_error.xlsx
+++ b/src/test/resources/sampleUpload_error.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/freelife/문서/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/freelife/company/backoffice/tis-api/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2C25649-1C6D-6C44-88F7-2DBAD6DFB884}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{591AC9BC-4429-3747-BD09-0F4E5D7B030F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-51200" yWindow="4840" windowWidth="35720" windowHeight="25520" xr2:uid="{2AD59B47-EA87-E647-B100-118A2D3F07F5}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="55">
   <si>
     <t>이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -71,10 +71,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>홍길동1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>홍길동2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -221,6 +217,27 @@
   <si>
     <t>에이브라함링컨에이브라함링컨</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IP</t>
+  </si>
+  <si>
+    <t>123.123.123.123</t>
+  </si>
+  <si>
+    <t>1.1.1.1</t>
+  </si>
+  <si>
+    <t>255.255.255.255</t>
+  </si>
+  <si>
+    <t>2.2.2.</t>
+  </si>
+  <si>
+    <t>999.999.999.999</t>
+  </si>
+  <si>
+    <t>9.9.9.9</t>
   </si>
 </sst>
 </file>
@@ -232,7 +249,7 @@
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="178" formatCode="yyyy&quot;-&quot;mm&quot;-&quot;dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -256,6 +273,13 @@
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Malgun Gothic"/>
+      <family val="2"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="2">
@@ -298,7 +322,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -324,6 +348,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -641,22 +671,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5258AA1D-AB2B-9E4C-86DA-73136A150989}">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
     <col min="2" max="2" width="16.42578125" customWidth="1"/>
     <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="29.7109375" customWidth="1"/>
-    <col min="11" max="11" width="23.42578125" customWidth="1"/>
+    <col min="10" max="10" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="29.7109375" customWidth="1"/>
+    <col min="12" max="12" width="23.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -678,60 +708,62 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="K1" s="6" t="s">
-        <v>43</v>
-      </c>
     </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="1" t="s">
-        <v>11</v>
-      </c>
+    <row r="2" spans="1:12">
+      <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="3">
-        <v>1111</v>
-      </c>
+      <c r="E2" s="3"/>
       <c r="F2" s="4">
         <v>2222</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2" s="1">
         <v>1.1234</v>
       </c>
-      <c r="I2" s="7">
+      <c r="J2" s="7">
         <v>43748</v>
       </c>
-      <c r="J2" s="8">
+      <c r="K2" s="8">
         <v>43534.271180555559</v>
       </c>
-      <c r="K2" s="8" t="s">
-        <v>44</v>
+      <c r="L2" s="8" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>8</v>
@@ -742,38 +774,39 @@
       <c r="E3" s="4">
         <v>1111</v>
       </c>
-      <c r="F3" s="4">
-        <v>2222</v>
-      </c>
+      <c r="F3" s="4"/>
       <c r="G3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="I3" s="1">
         <v>1234.1234549999999</v>
       </c>
-      <c r="I3" s="7">
+      <c r="J3" s="7">
         <v>43748</v>
       </c>
-      <c r="J3" s="8">
+      <c r="K3" s="8">
         <v>43534.271180555559</v>
       </c>
-      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F4" s="4">
         <v>2222</v>
@@ -781,26 +814,29 @@
       <c r="G4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="I4" s="1">
         <v>1234.1234549999999</v>
       </c>
-      <c r="I4" s="7">
+      <c r="J4" s="7">
         <v>43748</v>
       </c>
-      <c r="J4" s="8">
+      <c r="K4" s="8">
         <v>43534.271180555559</v>
       </c>
-      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>9</v>
@@ -814,29 +850,32 @@
       <c r="G5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="I5" s="1">
         <v>1234.1234549999999</v>
       </c>
-      <c r="I5" s="7">
+      <c r="J5" s="7">
         <v>43748</v>
       </c>
-      <c r="J5" s="8">
+      <c r="K5" s="8">
         <v>43534.271180555559</v>
       </c>
-      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E6" s="4">
         <v>1111</v>
@@ -847,26 +886,29 @@
       <c r="G6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="9">
+        <v>1</v>
+      </c>
+      <c r="I6" s="1">
         <v>1234.1234549999999</v>
       </c>
-      <c r="I6" s="7">
+      <c r="J6" s="7">
         <v>43748</v>
       </c>
-      <c r="J6" s="8">
+      <c r="K6" s="8">
         <v>43534.271180555559</v>
       </c>
-      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>9</v>
@@ -880,26 +922,27 @@
       <c r="G7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7" s="9"/>
+      <c r="I7" s="1">
         <v>1234.1234549999999</v>
       </c>
-      <c r="I7" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="J7" s="8">
+      <c r="J7" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K7" s="8">
         <v>43534.271180555559</v>
       </c>
-      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>9</v>
@@ -913,26 +956,29 @@
       <c r="G8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="I8" s="1">
         <v>1234.1234549999999</v>
       </c>
-      <c r="I8" s="7">
+      <c r="J8" s="7">
         <v>43748</v>
       </c>
-      <c r="J8" s="8">
+      <c r="K8" s="8">
         <v>43534.271180555559</v>
       </c>
-      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>9</v>
@@ -946,26 +992,29 @@
       <c r="G9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="I9" s="1">
         <v>1234.1234549999999</v>
       </c>
-      <c r="I9" s="7">
+      <c r="J9" s="7">
         <v>43748</v>
       </c>
-      <c r="J9" s="8">
+      <c r="K9" s="8">
         <v>43534.271180555559</v>
       </c>
-      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>9</v>
@@ -974,31 +1023,34 @@
         <v>1111</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H10" s="9">
+        <v>123.123</v>
+      </c>
+      <c r="I10" s="1">
         <v>1234.1234549999999</v>
       </c>
-      <c r="I10" s="7">
+      <c r="J10" s="7">
         <v>43748</v>
       </c>
-      <c r="J10" s="8">
+      <c r="K10" s="8">
         <v>43534.271180555559</v>
       </c>
-      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>9</v>
@@ -1012,23 +1064,26 @@
       <c r="G11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H11" s="10">
+        <v>123123000000</v>
+      </c>
+      <c r="I11" s="1">
         <v>1234.1234549999999</v>
       </c>
-      <c r="I11" s="7">
+      <c r="J11" s="7">
         <v>43748</v>
       </c>
-      <c r="J11" s="8">
+      <c r="K11" s="8">
         <v>43534.271180555559</v>
       </c>
-      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:12">
       <c r="A12" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>8</v>
@@ -1045,16 +1100,19 @@
       <c r="G12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H12" s="9">
+        <v>255</v>
+      </c>
+      <c r="I12" s="1">
         <v>1234.1234549999999</v>
       </c>
-      <c r="I12" s="7">
+      <c r="J12" s="7">
         <v>43748</v>
       </c>
-      <c r="J12" s="8">
+      <c r="K12" s="8">
         <v>43534.271180555559</v>
       </c>
-      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
